--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H2">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I2">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J2">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N2">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O2">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P2">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q2">
-        <v>1.698636262535111</v>
+        <v>1.654863380627333</v>
       </c>
       <c r="R2">
-        <v>15.287726362816</v>
+        <v>14.893770425646</v>
       </c>
       <c r="S2">
-        <v>0.01029936625354121</v>
+        <v>0.01971866413805039</v>
       </c>
       <c r="T2">
-        <v>0.01029936625354121</v>
+        <v>0.0197186641380504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H3">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I3">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J3">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.270977</v>
       </c>
       <c r="O3">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P3">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q3">
-        <v>0.4840896918542223</v>
+        <v>0.3409913748717778</v>
       </c>
       <c r="R3">
-        <v>4.356807226688001</v>
+        <v>3.068922373846</v>
       </c>
       <c r="S3">
-        <v>0.002935188154131075</v>
+        <v>0.004063111477226415</v>
       </c>
       <c r="T3">
-        <v>0.002935188154131075</v>
+        <v>0.004063111477226416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H4">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I4">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J4">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N4">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O4">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P4">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q4">
-        <v>0.7185018855324444</v>
+        <v>0.057736879004</v>
       </c>
       <c r="R4">
-        <v>6.466516969792</v>
+        <v>0.519631911036</v>
       </c>
       <c r="S4">
-        <v>0.004356503058467837</v>
+        <v>0.0006879686497307977</v>
       </c>
       <c r="T4">
-        <v>0.004356503058467837</v>
+        <v>0.0006879686497307979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H5">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I5">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J5">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N5">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O5">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P5">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q5">
-        <v>5.059259551587557</v>
+        <v>2.437432023519111</v>
       </c>
       <c r="R5">
-        <v>45.53333596428801</v>
+        <v>21.936888211672</v>
       </c>
       <c r="S5">
-        <v>0.03067588290842216</v>
+        <v>0.02904342678299038</v>
       </c>
       <c r="T5">
-        <v>0.03067588290842216</v>
+        <v>0.02904342678299039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H6">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I6">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J6">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N6">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O6">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P6">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q6">
-        <v>0.08248981102222223</v>
+        <v>0.8745396832946666</v>
       </c>
       <c r="R6">
-        <v>0.7424082992000001</v>
+        <v>7.870857149652</v>
       </c>
       <c r="S6">
-        <v>0.00050016168537183</v>
+        <v>0.01042065133119767</v>
       </c>
       <c r="T6">
-        <v>0.00050016168537183</v>
+        <v>0.01042065133119767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H7">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I7">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J7">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N7">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O7">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P7">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q7">
-        <v>4.044626836942224</v>
+        <v>0.5239041028371111</v>
       </c>
       <c r="R7">
-        <v>36.40164153248001</v>
+        <v>4.715136925534</v>
       </c>
       <c r="S7">
-        <v>0.02452384543492507</v>
+        <v>0.006242623509183823</v>
       </c>
       <c r="T7">
-        <v>0.02452384543492506</v>
+        <v>0.006242623509183825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J8">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N8">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O8">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P8">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q8">
-        <v>0.7641367968574445</v>
+        <v>1.056854763425667</v>
       </c>
       <c r="R8">
-        <v>6.877231171717001</v>
+        <v>9.511692870831</v>
       </c>
       <c r="S8">
-        <v>0.004633201888023371</v>
+        <v>0.01259304203999571</v>
       </c>
       <c r="T8">
-        <v>0.004633201888023371</v>
+        <v>0.01259304203999571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J9">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.270977</v>
       </c>
       <c r="O9">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P9">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q9">
         <v>0.2177692509478889</v>
@@ -1013,10 +1013,10 @@
         <v>1.959923258531</v>
       </c>
       <c r="S9">
-        <v>0.001320403504705748</v>
+        <v>0.002594847870407526</v>
       </c>
       <c r="T9">
-        <v>0.001320403504705748</v>
+        <v>0.002594847870407526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J10">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N10">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O10">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P10">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q10">
-        <v>0.3232203041087778</v>
+        <v>0.03687282969400001</v>
       </c>
       <c r="R10">
-        <v>2.908982736979</v>
+        <v>0.331855467246</v>
       </c>
       <c r="S10">
-        <v>0.001959786427512737</v>
+        <v>0.0004393613110708218</v>
       </c>
       <c r="T10">
-        <v>0.001959786427512737</v>
+        <v>0.0004393613110708219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J11">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N11">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O11">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P11">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q11">
-        <v>2.275923617956222</v>
+        <v>1.556631003343556</v>
       </c>
       <c r="R11">
-        <v>20.483312561606</v>
+        <v>14.009679030092</v>
       </c>
       <c r="S11">
-        <v>0.01379964117299139</v>
+        <v>0.01854816796427757</v>
       </c>
       <c r="T11">
-        <v>0.01379964117299139</v>
+        <v>0.01854816796427757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J12">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N12">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O12">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P12">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q12">
-        <v>0.03710829761388889</v>
+        <v>0.5585122257913334</v>
       </c>
       <c r="R12">
-        <v>0.333974678525</v>
+        <v>5.026610032122</v>
       </c>
       <c r="S12">
-        <v>0.0002249992871342879</v>
+        <v>0.006654999516153029</v>
       </c>
       <c r="T12">
-        <v>0.0002249992871342879</v>
+        <v>0.006654999516153031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J13">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N13">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O13">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P13">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q13">
-        <v>1.819487940903889</v>
+        <v>0.3345838412665555</v>
       </c>
       <c r="R13">
-        <v>16.375391468135</v>
+        <v>3.011254571399</v>
       </c>
       <c r="S13">
-        <v>0.01103212801385921</v>
+        <v>0.003986761970316212</v>
       </c>
       <c r="T13">
-        <v>0.01103212801385921</v>
+        <v>0.003986761970316213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H14">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N14">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O14">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P14">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q14">
-        <v>6.124926932321889</v>
+        <v>6.071395182759334</v>
       </c>
       <c r="R14">
-        <v>55.124342390897</v>
+        <v>54.64255664483401</v>
       </c>
       <c r="S14">
-        <v>0.03713735962401652</v>
+        <v>0.07234422119657059</v>
       </c>
       <c r="T14">
-        <v>0.03713735962401651</v>
+        <v>0.07234422119657062</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H15">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.270977</v>
       </c>
       <c r="O15">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P15">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q15">
-        <v>1.745526135696778</v>
+        <v>1.251035834737111</v>
       </c>
       <c r="R15">
-        <v>15.709735221271</v>
+        <v>11.259322512634</v>
       </c>
       <c r="S15">
-        <v>0.0105836743116733</v>
+        <v>0.01490682296715942</v>
       </c>
       <c r="T15">
-        <v>0.0105836743116733</v>
+        <v>0.01490682296715943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H16">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N16">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O16">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P16">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q16">
-        <v>2.590767456626555</v>
+        <v>0.211826192516</v>
       </c>
       <c r="R16">
-        <v>23.316907109639</v>
+        <v>1.906435732644</v>
       </c>
       <c r="S16">
-        <v>0.01570863845431463</v>
+        <v>0.002524032856586384</v>
       </c>
       <c r="T16">
-        <v>0.01570863845431463</v>
+        <v>0.002524032856586385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H17">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N17">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O17">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P17">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q17">
-        <v>18.24263132053845</v>
+        <v>8.942498347076446</v>
       </c>
       <c r="R17">
-        <v>164.183681884846</v>
+        <v>80.48248512368801</v>
       </c>
       <c r="S17">
-        <v>0.110610815006467</v>
+        <v>0.106555093021773</v>
       </c>
       <c r="T17">
-        <v>0.110610815006467</v>
+        <v>0.106555093021773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H18">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N18">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O18">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P18">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q18">
-        <v>0.2974409980027778</v>
+        <v>3.208528318678667</v>
       </c>
       <c r="R18">
-        <v>2.676968982025</v>
+        <v>28.876754868108</v>
       </c>
       <c r="S18">
-        <v>0.001803478381344226</v>
+        <v>0.03823148970126118</v>
       </c>
       <c r="T18">
-        <v>0.001803478381344226</v>
+        <v>0.0382314897012612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H19">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N19">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O19">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P19">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q19">
-        <v>14.58407805789278</v>
+        <v>1.922109633598445</v>
       </c>
       <c r="R19">
-        <v>131.256702521035</v>
+        <v>17.298986702386</v>
       </c>
       <c r="S19">
-        <v>0.08842785515734683</v>
+        <v>0.02290305939761081</v>
       </c>
       <c r="T19">
-        <v>0.08842785515734682</v>
+        <v>0.02290305939761081</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H20">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I20">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J20">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N20">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O20">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P20">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q20">
-        <v>0.12956132214</v>
+        <v>0.09009008048333333</v>
       </c>
       <c r="R20">
-        <v>1.16605189926</v>
+        <v>0.8108107243500001</v>
       </c>
       <c r="S20">
-        <v>0.0007855710715968042</v>
+        <v>0.001073475949747194</v>
       </c>
       <c r="T20">
-        <v>0.0007855710715968041</v>
+        <v>0.001073475949747194</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H21">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I21">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J21">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.270977</v>
       </c>
       <c r="O21">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P21">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q21">
-        <v>0.03692332602</v>
+        <v>0.01856342992777778</v>
       </c>
       <c r="R21">
-        <v>0.33230993418</v>
+        <v>0.16707086935</v>
       </c>
       <c r="S21">
-        <v>0.0002238777461463899</v>
+        <v>0.0002211941144394172</v>
       </c>
       <c r="T21">
-        <v>0.0002238777461463899</v>
+        <v>0.0002211941144394172</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H22">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I22">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J22">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N22">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O22">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P22">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q22">
-        <v>0.05480281817999999</v>
+        <v>0.0031431719</v>
       </c>
       <c r="R22">
-        <v>0.49322536362</v>
+        <v>0.0282885471</v>
       </c>
       <c r="S22">
-        <v>0.0003322867341355723</v>
+        <v>3.745272978411208E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003322867341355723</v>
+        <v>3.745272978411209E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H23">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I23">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J23">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N23">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O23">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P23">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q23">
-        <v>0.38588859252</v>
+        <v>0.1326927949111111</v>
       </c>
       <c r="R23">
-        <v>3.47299733268</v>
+        <v>1.1942351542</v>
       </c>
       <c r="S23">
-        <v>0.002339763983076307</v>
+        <v>0.00158111218546604</v>
       </c>
       <c r="T23">
-        <v>0.002339763983076307</v>
+        <v>0.001581112185466041</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H24">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I24">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J24">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N24">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O24">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P24">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q24">
-        <v>0.0062918055</v>
+        <v>0.04760957996666667</v>
       </c>
       <c r="R24">
-        <v>0.0566262495</v>
+        <v>0.4284862197</v>
       </c>
       <c r="S24">
-        <v>3.814919689977213E-05</v>
+        <v>0.0005672959641903907</v>
       </c>
       <c r="T24">
-        <v>3.814919689977213E-05</v>
+        <v>0.0005672959641903908</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H25">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I25">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J25">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N25">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O25">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P25">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q25">
-        <v>0.3084987717000001</v>
+        <v>0.02852112346111111</v>
       </c>
       <c r="R25">
-        <v>2.776488945300001</v>
+        <v>0.25669011115</v>
       </c>
       <c r="S25">
-        <v>0.001870525143366424</v>
+        <v>0.0003398458512969952</v>
       </c>
       <c r="T25">
-        <v>0.001870525143366424</v>
+        <v>0.0003398458512969953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H26">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N26">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O26">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P26">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q26">
-        <v>8.410100592914</v>
+        <v>12.43194511268867</v>
       </c>
       <c r="R26">
-        <v>75.690905336226</v>
+        <v>111.887506014198</v>
       </c>
       <c r="S26">
-        <v>0.0509930867166772</v>
+        <v>0.1481338901624952</v>
       </c>
       <c r="T26">
-        <v>0.05099308671667719</v>
+        <v>0.1481338901624953</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H27">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.270977</v>
       </c>
       <c r="O27">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P27">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q27">
-        <v>2.396771512702</v>
+        <v>2.561653188977556</v>
       </c>
       <c r="R27">
-        <v>21.570943614318</v>
+        <v>23.054878700798</v>
       </c>
       <c r="S27">
-        <v>0.01453237999201236</v>
+        <v>0.03052359455344628</v>
       </c>
       <c r="T27">
-        <v>0.01453237999201236</v>
+        <v>0.03052359455344629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H28">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N28">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O28">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P28">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q28">
-        <v>3.557367322717999</v>
+        <v>0.433740766252</v>
       </c>
       <c r="R28">
-        <v>32.01630590446199</v>
+        <v>3.903666896268</v>
       </c>
       <c r="S28">
-        <v>0.02156943765016007</v>
+        <v>0.005168274670179469</v>
       </c>
       <c r="T28">
-        <v>0.02156943765016007</v>
+        <v>0.005168274670179471</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H29">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N29">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O29">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P29">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q29">
-        <v>25.048848121852</v>
+        <v>18.31088988192622</v>
       </c>
       <c r="R29">
-        <v>225.439633096668</v>
+        <v>164.798008937336</v>
       </c>
       <c r="S29">
-        <v>0.1518790495213209</v>
+        <v>0.2181849522307115</v>
       </c>
       <c r="T29">
-        <v>0.1518790495213209</v>
+        <v>0.2181849522307115</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H30">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N30">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O30">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P30">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q30">
-        <v>0.40841445805</v>
+        <v>6.569865203897333</v>
       </c>
       <c r="R30">
-        <v>3.67573012245</v>
+        <v>59.128786835076</v>
       </c>
       <c r="S30">
-        <v>0.002476345395111653</v>
+        <v>0.0782837827608497</v>
       </c>
       <c r="T30">
-        <v>0.002476345395111653</v>
+        <v>0.07828378276084973</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H31">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N31">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O31">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P31">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q31">
-        <v>20.02531048567</v>
+        <v>3.935761179460222</v>
       </c>
       <c r="R31">
-        <v>180.22779437103</v>
+        <v>35.421850615142</v>
       </c>
       <c r="S31">
-        <v>0.1214197598283826</v>
+        <v>0.04689689416895141</v>
       </c>
       <c r="T31">
-        <v>0.1214197598283825</v>
+        <v>0.04689689416895143</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H32">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.3169463333333333</v>
+        <v>0.438359</v>
       </c>
       <c r="N32">
-        <v>0.950839</v>
+        <v>1.315077</v>
       </c>
       <c r="O32">
-        <v>0.1405271265494779</v>
+        <v>0.28098693070627</v>
       </c>
       <c r="P32">
-        <v>0.1405271265494778</v>
+        <v>0.2809869307062701</v>
       </c>
       <c r="Q32">
-        <v>6.049255678292223</v>
+        <v>2.276316167747333</v>
       </c>
       <c r="R32">
-        <v>54.44330110463001</v>
+        <v>20.486845509726</v>
       </c>
       <c r="S32">
-        <v>0.03667854099562275</v>
+        <v>0.02712363721941088</v>
       </c>
       <c r="T32">
-        <v>0.03667854099562274</v>
+        <v>0.02712363721941089</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H33">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.270977</v>
       </c>
       <c r="O33">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="P33">
-        <v>0.04004844055723194</v>
+        <v>0.0578985074805452</v>
       </c>
       <c r="Q33">
-        <v>1.723960792454445</v>
+        <v>0.4690442659917778</v>
       </c>
       <c r="R33">
-        <v>15.51564713209</v>
+        <v>4.221398393926</v>
       </c>
       <c r="S33">
-        <v>0.01045291684856307</v>
+        <v>0.005588936497866136</v>
       </c>
       <c r="T33">
-        <v>0.01045291684856307</v>
+        <v>0.005588936497866136</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H34">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.1340643333333333</v>
+        <v>0.015294</v>
       </c>
       <c r="N34">
-        <v>0.402193</v>
+        <v>0.045882</v>
       </c>
       <c r="O34">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="P34">
-        <v>0.05944121623988302</v>
+        <v>0.009803412541368363</v>
       </c>
       <c r="Q34">
-        <v>2.558759462978889</v>
+        <v>0.079418876924</v>
       </c>
       <c r="R34">
-        <v>23.02883516681</v>
+        <v>0.714769892316</v>
       </c>
       <c r="S34">
-        <v>0.01551456391529217</v>
+        <v>0.0009463223240167763</v>
       </c>
       <c r="T34">
-        <v>0.01551456391529217</v>
+        <v>0.0009463223240167765</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H35">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9440006666666667</v>
+        <v>0.6456546666666667</v>
       </c>
       <c r="N35">
-        <v>2.832002</v>
+        <v>1.936964</v>
       </c>
       <c r="O35">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="P35">
-        <v>0.4185494110384348</v>
+        <v>0.4138628911071668</v>
       </c>
       <c r="Q35">
-        <v>18.01725021737111</v>
+        <v>3.352763731359111</v>
       </c>
       <c r="R35">
-        <v>162.15525195634</v>
+        <v>30.174873582232</v>
       </c>
       <c r="S35">
-        <v>0.1092442584461571</v>
+        <v>0.03995013892194828</v>
       </c>
       <c r="T35">
-        <v>0.1092442584461571</v>
+        <v>0.03995013892194829</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H36">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.01539166666666667</v>
+        <v>0.231658</v>
       </c>
       <c r="N36">
-        <v>0.046175</v>
+        <v>0.694974</v>
       </c>
       <c r="O36">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="P36">
-        <v>0.006824331004956822</v>
+        <v>0.1484921500266975</v>
       </c>
       <c r="Q36">
-        <v>0.2937662221944445</v>
+        <v>1.202956596734667</v>
       </c>
       <c r="R36">
-        <v>2.64389599975</v>
+        <v>10.826609370612</v>
       </c>
       <c r="S36">
-        <v>0.001781197059095052</v>
+        <v>0.01433393075304553</v>
       </c>
       <c r="T36">
-        <v>0.001781197059095052</v>
+        <v>0.01433393075304553</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H37">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.7546816666666668</v>
+        <v>0.1387776666666667</v>
       </c>
       <c r="N37">
-        <v>2.264045</v>
+        <v>0.416333</v>
       </c>
       <c r="O37">
-        <v>0.3346094746100156</v>
+        <v>0.088956108137952</v>
       </c>
       <c r="P37">
-        <v>0.3346094746100156</v>
+        <v>0.08895610813795202</v>
       </c>
       <c r="Q37">
-        <v>14.40389705529445</v>
+        <v>0.7206464253171111</v>
       </c>
       <c r="R37">
-        <v>129.63507349765</v>
+        <v>6.485817827854</v>
       </c>
       <c r="S37">
-        <v>0.08733536103213552</v>
+        <v>0.008586923240592749</v>
       </c>
       <c r="T37">
-        <v>0.0873353610321355</v>
+        <v>0.00858692324059275</v>
       </c>
     </row>
   </sheetData>
